--- a/Practo_Project.xlsx
+++ b/Practo_Project.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/saarla-mounika_saarla-mounika_capgemini_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{3D8C4440-B44F-4AF2-B671-64BE4011A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5948CC8-A4D2-45B4-9A90-055132496A0F}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{3D8C4440-B44F-4AF2-B671-64BE4011A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E241AFE7-CD2A-4B1D-A8A1-DB9810E620A2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{75C5D62F-D3BF-4CCD-BE52-3884BF456F41}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{75C5D62F-D3BF-4CCD-BE52-3884BF456F41}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory" sheetId="1" r:id="rId1"/>
     <sheet name="TestScenario" sheetId="2" r:id="rId2"/>
     <sheet name="TestCase" sheetId="3" r:id="rId3"/>
     <sheet name="DefectReport" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="RTM" sheetId="5" r:id="rId5"/>
+    <sheet name="TestExecutionSummary" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="203">
   <si>
     <t>Issue Type</t>
   </si>
@@ -641,9 +642,6 @@
     <t>TR_Practo_Search_01</t>
   </si>
   <si>
-    <t>DF_Practo_Search_02</t>
-  </si>
-  <si>
     <t>BR_Practo_List_01</t>
   </si>
   <si>
@@ -657,6 +655,36 @@
   </si>
   <si>
     <t>DF_Practo_Book_02</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Total Passed</t>
+  </si>
+  <si>
+    <t>Total Failed</t>
+  </si>
+  <si>
+    <t>Total Executed</t>
+  </si>
+  <si>
+    <t>Pass Percentage</t>
+  </si>
+  <si>
+    <t>Fail Percentage</t>
+  </si>
+  <si>
+    <t>Completion Percentage</t>
+  </si>
+  <si>
+    <t>Practo</t>
+  </si>
+  <si>
+    <t>Issue_ID</t>
   </si>
 </sst>
 </file>
@@ -745,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -762,6 +790,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1097,280 +1126,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5495C35-8B97-4EB5-A913-733F387965D5}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="76.1796875" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="76.1796875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="24.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1384,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61A9CF3-1A8F-484D-B51E-3FCE974029B0}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="64" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="72" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1418,7 +1451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="178.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="230.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1438,7 +1471,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="145" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1458,7 +1491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1487,16 +1520,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A3B9AE-F768-48A7-92BA-64EED00B9EE1}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.90625" customWidth="1"/>
     <col min="2" max="2" width="30.26953125" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" customWidth="1"/>
+    <col min="3" max="3" width="42.08984375" customWidth="1"/>
+    <col min="4" max="4" width="48.90625" customWidth="1"/>
     <col min="5" max="5" width="34.7265625" customWidth="1"/>
     <col min="6" max="6" width="29.08984375" customWidth="1"/>
     <col min="7" max="7" width="49.36328125" customWidth="1"/>
@@ -2043,14 +2076,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.08984375" customWidth="1"/>
     <col min="2" max="2" width="25.6328125" customWidth="1"/>
-    <col min="3" max="3" width="57.54296875" customWidth="1"/>
+    <col min="3" max="3" width="58.81640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="43.81640625" customWidth="1"/>
   </cols>
@@ -2168,11 +2201,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C87EBA-FD16-4E5E-A95A-BC03056818C9}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -2194,16 +2235,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+    <row r="2" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>68</v>
       </c>
@@ -2214,7 +2246,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -2234,118 +2266,73 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
+    <row r="4" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B8" t="s">
         <v>189</v>
       </c>
-      <c r="B5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>143</v>
       </c>
       <c r="E8" t="s">
         <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
         <v>74</v>
@@ -2354,38 +2341,20 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
+    <row r="10" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -2394,18 +2363,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
+    <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
@@ -2414,18 +2374,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
+    <row r="13" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
@@ -2434,18 +2385,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" t="s">
         <v>191</v>
-      </c>
-      <c r="B14" t="s">
-        <v>192</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
@@ -2454,36 +2405,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
         <v>192</v>
       </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>149</v>
       </c>
@@ -2492,6 +2425,148 @@
       </c>
       <c r="F16" t="s">
         <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5F2DA2-4B19-4DCE-8A47-1CEB8861AEB4}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>83.33</v>
+      </c>
+      <c r="H4">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
